--- a/results/mp/logistic/corona/confidence/126/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,370 +40,400 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>with</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>19</t>
+    <t>to</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>toronto</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>need</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>in</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -761,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8695652173913043</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -880,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,31 +928,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>25</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,16 +1081,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1080,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,16 +1181,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.9138381201044387</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L10">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M10">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1260,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1310,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.9014084507042254</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6111111111111112</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1460,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5213178294573644</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C16">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="D16">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,31 +1528,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.8828828828828829</v>
+        <v>0.86875</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,49 +1560,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5185185185185185</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C17">
+        <v>288</v>
+      </c>
+      <c r="D17">
+        <v>288</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>228</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="L17">
+        <v>92</v>
+      </c>
+      <c r="M17">
+        <v>92</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="L17">
-        <v>51</v>
-      </c>
-      <c r="M17">
-        <v>51</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4901960784313725</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1598,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1660,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4745762711864407</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.8723404255319149</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1680,13 +1710,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4516129032258064</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.8679245283018868</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3733333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.8671875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,38 +1810,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3636363636363636</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L22">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>35</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.358974358974359</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.8625</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L23">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3557046979865772</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.8461538461538461</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.8292682926829268</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +2010,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3272727272727273</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3035714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.7916666666666666</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2110,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2337662337662338</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2160,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2138888888888889</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2210,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1875</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2222,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2260,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1666666666666667</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.7647058823529411</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,13 +2310,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1349206349206349</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2298,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.7619047619047619</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1018766756032172</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2348,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.76</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2410,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04666666666666667</v>
+        <v>0.06702412868632708</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,37 +2460,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01841359773371105</v>
+        <v>0.06</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>693</v>
+        <v>282</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2472,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2480,37 +2510,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009278785322648671</v>
+        <v>0.01908767389194435</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="F36">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2349</v>
+        <v>3032</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.7441176470588236</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L36">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2522,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2530,37 +2560,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008397932816537468</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="F37">
-        <v>0.7</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>3070</v>
+        <v>2082</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.7428571428571429</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2580,37 +2610,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008001561280249805</v>
+        <v>0.01692763436309776</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>5083</v>
+        <v>2323</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.7307692307692307</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2622,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2630,37 +2660,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.007992477668077104</v>
+        <v>0.01419698314108252</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="F39">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2110</v>
+        <v>1111</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2672,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2680,37 +2710,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006544502617801047</v>
+        <v>0.01341752170481452</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F40">
-        <v>0.47</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2277</v>
+        <v>1250</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.7272727272727273</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2722,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2730,37 +2760,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005832944470368642</v>
+        <v>0.0129757785467128</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="F41">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>4261</v>
+        <v>1141</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.7210884353741497</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L41">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2769,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2780,37 +2810,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004057618178129438</v>
+        <v>0.008251348778165662</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="F42">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>4909</v>
+        <v>3125</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>0.7112970711297071</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2822,21 +2852,45 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.007653061224489796</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>108</v>
+      </c>
+      <c r="E43">
+        <v>0.64</v>
+      </c>
+      <c r="F43">
+        <v>0.36</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>5057</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.6808510638297872</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L43">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2848,21 +2902,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.00700280112044818</v>
+      </c>
+      <c r="C44">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="D44">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>0.59</v>
+      </c>
+      <c r="F44">
+        <v>0.41</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4254</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.6521739130434783</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2874,21 +2952,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.006989951944080385</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2273</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.6461538461538462</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2900,47 +3002,95 @@
         <v>0</v>
       </c>
       <c r="Q45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.006700507614213198</v>
+      </c>
+      <c r="C46">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>104</v>
+      </c>
+      <c r="E46">
+        <v>0.68</v>
+      </c>
+      <c r="F46">
+        <v>0.32</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>4892</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L46">
+        <v>47</v>
+      </c>
+      <c r="M46">
+        <v>47</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K46">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L46">
-        <v>17</v>
-      </c>
-      <c r="M46">
-        <v>17</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>10</v>
-      </c>
-    </row>
     <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.006661115736885929</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <v>0.73</v>
+      </c>
+      <c r="F47">
+        <v>0.27</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2386</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.6086956521739131</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2956,17 +3106,41 @@
       </c>
     </row>
     <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.004946727549467275</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>0.78</v>
+      </c>
+      <c r="F48">
+        <v>0.22</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2615</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>0.6071428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2978,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K49">
-        <v>0.6071428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3004,21 +3178,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K50">
-        <v>0.6</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3030,21 +3204,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3056,21 +3230,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.5955056179775281</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3082,21 +3256,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K53">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3113,42 +3287,42 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>0.5769230769230769</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>15</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K55">
-        <v>0.5588235294117647</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3160,21 +3334,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K56">
-        <v>0.5555555555555556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3186,21 +3360,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K57">
-        <v>0.5490196078431373</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3212,21 +3386,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K58">
-        <v>0.5476190476190477</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3238,47 +3412,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K59">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K60">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="L60">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3290,21 +3464,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K61">
-        <v>0.4642857142857143</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3316,21 +3490,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>0.4375</v>
+        <v>0.421875</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3342,21 +3516,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K63">
-        <v>0.4193548387096774</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3368,21 +3542,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.3389830508474576</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3399,16 +3573,16 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3420,21 +3594,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K66">
-        <v>0.3181818181818182</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3446,21 +3620,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K67">
-        <v>0.2083333333333333</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3472,73 +3646,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>57</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K68">
-        <v>0.05850091407678245</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>515</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K69">
-        <v>0.04567307692307692</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N69">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>397</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K70">
-        <v>0.04220779220779221</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3550,475 +3724,761 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K71">
-        <v>0.04180602006688963</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N71">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1146</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K72">
-        <v>0.03255340793489318</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L72">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="O72">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>951</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K73">
-        <v>0.02788461538461539</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>1011</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K74">
-        <v>0.01775804661487236</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>885</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K75">
-        <v>0.01639344262295082</v>
+        <v>0.03112033195020747</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N75">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="O75">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1260</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K76">
-        <v>0.0150564617314931</v>
+        <v>0.02975206611570248</v>
       </c>
       <c r="L76">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2355</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K77">
-        <v>0.01484018264840183</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O77">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>863</v>
+        <v>956</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K78">
-        <v>0.01397451705713111</v>
+        <v>0.02767527675276753</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="O78">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2399</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="K79">
-        <v>0.01346463022508039</v>
+        <v>0.02309913378248316</v>
       </c>
       <c r="L79">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="N79">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="O79">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>4909</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K80">
-        <v>0.01324085750315259</v>
+        <v>0.02177293934681182</v>
       </c>
       <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
         <v>21</v>
       </c>
-      <c r="M80">
-        <v>29</v>
-      </c>
       <c r="N80">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="O80">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1565</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K81">
-        <v>0.01314307172361998</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M81">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N81">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="O81">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2628</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="K82">
-        <v>0.0130784708249497</v>
+        <v>0.0177027583367641</v>
       </c>
       <c r="L82">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N82">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="O82">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>981</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K83">
-        <v>0.01003134796238245</v>
+        <v>0.01752190237797246</v>
       </c>
       <c r="L83">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M83">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N83">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="O83">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3158</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>0.009760632117127585</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="L84">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N84">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O84">
-        <v>0.37</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>4261</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="K85">
-        <v>0.009280742459396751</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N85">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="O85">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>2135</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="K86">
-        <v>0.008001561280249805</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L86">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="O86">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>5083</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>0.007525870178739417</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M87">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N87">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
       <c r="O87">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>2110</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="K88">
-        <v>0.007410636442894507</v>
+        <v>0.01547469677959013</v>
       </c>
       <c r="L88">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M88">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N88">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="O88">
-        <v>0.47</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>2277</v>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89">
+        <v>0.01444444444444444</v>
+      </c>
+      <c r="L89">
+        <v>13</v>
+      </c>
+      <c r="M89">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>0.93</v>
+      </c>
+      <c r="O89">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90">
+        <v>0.01430586338907919</v>
+      </c>
+      <c r="L90">
+        <v>71</v>
+      </c>
+      <c r="M90">
+        <v>104</v>
+      </c>
+      <c r="N90">
+        <v>0.68</v>
+      </c>
+      <c r="O90">
+        <v>0.32</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K91">
+        <v>0.01346078813889973</v>
+      </c>
+      <c r="L91">
+        <v>69</v>
+      </c>
+      <c r="M91">
+        <v>108</v>
+      </c>
+      <c r="N91">
+        <v>0.64</v>
+      </c>
+      <c r="O91">
+        <v>0.36</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K92">
+        <v>0.01211556383970177</v>
+      </c>
+      <c r="L92">
+        <v>26</v>
+      </c>
+      <c r="M92">
+        <v>38</v>
+      </c>
+      <c r="N92">
+        <v>0.68</v>
+      </c>
+      <c r="O92">
+        <v>0.32</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93">
+        <v>0.01186521120075937</v>
+      </c>
+      <c r="L93">
+        <v>25</v>
+      </c>
+      <c r="M93">
+        <v>61</v>
+      </c>
+      <c r="N93">
+        <v>0.41</v>
+      </c>
+      <c r="O93">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K94">
+        <v>0.01156583629893238</v>
+      </c>
+      <c r="L94">
+        <v>13</v>
+      </c>
+      <c r="M94">
+        <v>29</v>
+      </c>
+      <c r="N94">
+        <v>0.45</v>
+      </c>
+      <c r="O94">
+        <v>0.55</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95">
+        <v>0.01106194690265487</v>
+      </c>
+      <c r="L95">
+        <v>15</v>
+      </c>
+      <c r="M95">
+        <v>22</v>
+      </c>
+      <c r="N95">
+        <v>0.68</v>
+      </c>
+      <c r="O95">
+        <v>0.32</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96">
+        <v>0.01023731968357375</v>
+      </c>
+      <c r="L96">
+        <v>44</v>
+      </c>
+      <c r="M96">
+        <v>74</v>
+      </c>
+      <c r="N96">
+        <v>0.59</v>
+      </c>
+      <c r="O96">
+        <v>0.41</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <v>0.008722197993894461</v>
+      </c>
+      <c r="L97">
+        <v>20</v>
+      </c>
+      <c r="M97">
+        <v>36</v>
+      </c>
+      <c r="N97">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O97">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98">
+        <v>0.006840530141085934</v>
+      </c>
+      <c r="L98">
+        <v>16</v>
+      </c>
+      <c r="M98">
+        <v>56</v>
+      </c>
+      <c r="N98">
+        <v>0.29</v>
+      </c>
+      <c r="O98">
+        <v>0.71</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>0.005249343832020997</v>
+      </c>
+      <c r="L99">
+        <v>16</v>
+      </c>
+      <c r="M99">
+        <v>75</v>
+      </c>
+      <c r="N99">
+        <v>0.21</v>
+      </c>
+      <c r="O99">
+        <v>0.79</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
